--- a/vedois/professores (importar)/Prof 3_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 3_horarios.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
+          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
+          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
+          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
+          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -563,9 +563,9 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -580,9 +580,9 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -597,9 +597,9 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -614,9 +614,9 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EME) (Outros Cursos - 1º período)</t>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -648,9 +648,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -665,9 +665,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -682,9 +682,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -699,9 +699,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -733,9 +733,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -750,9 +750,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -767,9 +767,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -784,9 +784,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EBP / ECI) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -818,9 +818,9 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -835,9 +835,9 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -852,9 +852,9 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -869,9 +869,9 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -988,9 +988,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1005,9 +1005,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1022,9 +1022,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1039,9 +1039,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMA / EEN) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1243,9 +1243,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1260,9 +1260,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1277,9 +1277,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
@@ -1294,9 +1294,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Fundamentos de Programação (EMT) (Outros Cursos - 1º período)</t>
         </is>
       </c>
     </row>
